--- a/data/trans_camb/P71_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P71_R-Provincia-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>26.4657138389344</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-3.150736356955953</v>
+        <v>-3.150736356955951</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>24.84234101156428</v>
@@ -655,7 +655,7 @@
         <v>16.49400039615077</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-5.310428663715245</v>
+        <v>-5.310428663715244</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>26.86955237136337</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>22.13329173713372</v>
+        <v>21.566968815199</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>20.05971550610355</v>
+        <v>19.31898514212887</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-8.158234732729621</v>
+        <v>-8.104831090745385</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>17.11975806024832</v>
+        <v>17.0449660623356</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>9.325176802251873</v>
+        <v>9.136543380496269</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-10.5769921788353</v>
+        <v>-11.05189503718712</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>21.29127935713464</v>
+        <v>21.74585758129069</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>16.65423736267676</v>
+        <v>16.60192361226238</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-7.957270395443879</v>
+        <v>-7.61567097453103</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>36.01836292184581</v>
+        <v>35.56381557602025</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>32.9839461095694</v>
+        <v>33.84170080422586</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.145010404797152</v>
+        <v>1.412460612625453</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>32.58210119788674</v>
+        <v>33.41072953043859</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>23.71980649805461</v>
+        <v>23.16264574396723</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.5156229217043532</v>
+        <v>0.4624702109826909</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>31.78436062669696</v>
+        <v>32.1536160192057</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>26.87747671643949</v>
+        <v>26.1525336130759</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-0.5885611223992835</v>
+        <v>-0.2383912931326671</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>2.489163128045589</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.2963342237302456</v>
+        <v>-0.2963342237302453</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>1.669168916650615</v>
@@ -760,7 +760,7 @@
         <v>1.108239869972875</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.3568102722459892</v>
+        <v>-0.356810272245989</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>2.114388679805675</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>1.565476428168333</v>
+        <v>1.5040444622779</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>1.399693663925601</v>
+        <v>1.359027865430766</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.5870766708839164</v>
+        <v>-0.6048176389867903</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.9064059642171083</v>
+        <v>0.8763389013551038</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.4968216580606408</v>
+        <v>0.4848021136780946</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.5950717942126963</v>
+        <v>-0.602159092385406</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>1.398995506049765</v>
+        <v>1.378082689297204</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>1.083905680307635</v>
+        <v>1.083684336255311</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.5207775237644436</v>
+        <v>-0.5182513620283441</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>4.73345506619278</v>
+        <v>4.633888944663061</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>4.160126732865661</v>
+        <v>4.334355018986059</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.1510699147208134</v>
+        <v>0.163202576870584</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>2.871113909153075</v>
+        <v>2.863046224417005</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.00360020253321</v>
+        <v>2.092793375013847</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.05699077125626213</v>
+        <v>0.0448721891921476</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>2.967650337096951</v>
+        <v>2.915450337554177</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>2.538085681138684</v>
+        <v>2.476248842856369</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.04834484239075933</v>
+        <v>-0.02389672673876377</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>23.25928593786723</v>
+        <v>22.29826514830522</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>9.794899396446711</v>
+        <v>9.120341889164852</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-17.20618772573946</v>
+        <v>-16.78813445267959</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>14.91639883157712</v>
+        <v>14.97161755180174</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.9939598061217528</v>
+        <v>1.127258242617457</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-26.25665643374237</v>
+        <v>-26.44896010171415</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>20.70113703820586</v>
+        <v>20.75800666284533</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>6.576149499899999</v>
+        <v>6.985009523268958</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-19.97163997148918</v>
+        <v>-20.43631154538971</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>36.3725934415646</v>
+        <v>34.55574780443603</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>21.33638380938779</v>
+        <v>21.62897949504167</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-6.048430293802852</v>
+        <v>-6.05871291528754</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>27.54673509199509</v>
+        <v>27.38281168763737</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>13.27112005111596</v>
+        <v>13.13385578503445</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-16.09867887291822</v>
+        <v>-16.37215606088213</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>29.52425508824779</v>
+        <v>29.37549837278146</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>15.65038694907334</v>
+        <v>15.30388286732097</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-12.97947709953947</v>
+        <v>-13.02987288902748</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.6377867102809115</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.4778707607646391</v>
+        <v>-0.477870760764639</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.5997136442350438</v>
@@ -983,7 +983,7 @@
         <v>0.3762741173032525</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.5506449040061889</v>
+        <v>-0.5506449040061888</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.8491927968362416</v>
+        <v>0.822888594376019</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.3508294600960715</v>
+        <v>0.3261416388749375</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.6359692802365243</v>
+        <v>-0.6254159899843784</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.3923753413736977</v>
+        <v>0.3970384674900385</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.02175257214691927</v>
+        <v>0.03107147157561569</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.685475704549502</v>
+        <v>-0.6816496711817266</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6423345733963938</v>
+        <v>0.6292067283913783</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1982893974372379</v>
+        <v>0.2156602182696771</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.633018008849353</v>
+        <v>-0.6366617448434375</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.66206595262539</v>
+        <v>1.637561484713486</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.9733418755497799</v>
+        <v>1.002593006510974</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.2770174715606594</v>
+        <v>-0.2761937246522235</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.8651617957360409</v>
+        <v>0.8794517018759131</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4154060013215493</v>
+        <v>0.4245532671994106</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.5064692555086719</v>
+        <v>-0.5007592420974843</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.06869630721744</v>
+        <v>1.044163752390701</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.5680711036361968</v>
+        <v>0.5493455657231214</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.4561465338113297</v>
+        <v>-0.4625548531936476</v>
       </c>
     </row>
     <row r="16">
@@ -1092,7 +1092,7 @@
         <v>7.633895637586583</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-2.494052208217537</v>
+        <v>-2.49405220821754</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-6.579350876533482</v>
+        <v>-6.403449872627612</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.065618981266986</v>
+        <v>2.395867991502155</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-5.29583692240533</v>
+        <v>-5.816722382526204</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-17.29933720599612</v>
+        <v>-17.49083862296632</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.4340971556675475</v>
+        <v>0.3371944205607906</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-11.02849273064763</v>
+        <v>-11.28727620839252</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-10.17369332722173</v>
+        <v>-10.39068990121248</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>2.908485871574995</v>
+        <v>2.667876956176515</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-6.859618576738065</v>
+        <v>-6.811972887914183</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.165482389611975</v>
+        <v>5.719671101131869</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>14.51453523776909</v>
+        <v>15.49963876915057</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6.250444784479265</v>
+        <v>6.005978488821329</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-5.563100916065612</v>
+        <v>-5.212888198872209</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>14.05013263481771</v>
+        <v>14.47687015438504</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.5672494452665986</v>
+        <v>0.6676554065854643</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>-1.893198265385625</v>
+        <v>-1.714894510525614</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>12.22909033559896</v>
+        <v>12.67777298337988</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>1.383861276675037</v>
+        <v>1.858628786131734</v>
       </c>
     </row>
     <row r="19">
@@ -1197,7 +1197,7 @@
         <v>0.3638279320142182</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.1188653736348631</v>
+        <v>-0.1188653736348633</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.3466734417776911</v>
+        <v>-0.3301691971723884</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.04936469484038606</v>
+        <v>0.1262211860381871</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.2820455751694051</v>
+        <v>-0.3015532269286424</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.5966390574675181</v>
+        <v>-0.6003115030311414</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.01646293526510492</v>
+        <v>0.00967172006166409</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.3828289939951151</v>
+        <v>-0.3845613961888188</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.4384868371343232</v>
+        <v>-0.4425565523119196</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.1201455687204073</v>
+        <v>0.1119793265575754</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.297455718580205</v>
+        <v>-0.2903974006909333</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.4663585868606571</v>
+        <v>0.4187439318978631</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.094718008489663</v>
+        <v>1.238266051365262</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.4958826535040254</v>
+        <v>0.4528987458852247</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>-0.2472182480740541</v>
+        <v>-0.2076678674982097</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.6446659167042729</v>
+        <v>0.6407254156635384</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.0285277350772301</v>
+        <v>0.03180854661946848</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.1037000617307127</v>
+        <v>-0.08900751720215043</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.6421320056285367</v>
+        <v>0.6860097784857139</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.07138340909941092</v>
+        <v>0.1023280029783148</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>15.69550721466205</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-2.595629264227628</v>
+        <v>-2.595629264227633</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>8.006933719224781</v>
@@ -1306,7 +1306,7 @@
         <v>16.99086448659395</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-0.3090184840602639</v>
+        <v>-0.3090184840602611</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>7.361210116096578</v>
+        <v>7.569966665369067</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>12.78114485469297</v>
+        <v>12.26727537222885</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-3.766460865930772</v>
+        <v>-4.359429063522921</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-3.218921330893556</v>
+        <v>-3.73718001539232</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>8.692917483864674</v>
+        <v>9.294847118007276</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-8.821842764148176</v>
+        <v>-8.169804579562509</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>3.701348716123554</v>
+        <v>3.87495665949852</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>11.8854372498209</v>
+        <v>12.52603664127488</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-4.180526145799465</v>
+        <v>-4.807110702085367</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>19.20719704746755</v>
+        <v>19.49313051444658</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>24.69058183312573</v>
+        <v>24.14416342235834</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8.498374699342833</v>
+        <v>8.367990563277113</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>9.423144467651646</v>
+        <v>8.132991250518803</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>22.82597595006965</v>
+        <v>22.11013511623831</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3.213564327821133</v>
+        <v>3.607170165708706</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>12.63453360742017</v>
+        <v>12.12883489453986</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>21.57879966783906</v>
+        <v>21.44233166145093</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>4.145885186142874</v>
+        <v>3.722499011790097</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>0.6806999235511617</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.1125700888516936</v>
+        <v>-0.1125700888516938</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.4535929352824095</v>
@@ -1411,7 +1411,7 @@
         <v>0.9625327704356186</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.01750590252856327</v>
+        <v>-0.01750590252856311</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.4970011982498775</v>
+        <v>0.4912118569760812</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.8686434067912</v>
+        <v>0.8269438152748668</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.2807726936078748</v>
+        <v>-0.2966516279873704</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.12528589064506</v>
+        <v>-0.1380021047309883</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.3250885842706746</v>
+        <v>0.3679119806233874</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.3348592002849959</v>
+        <v>-0.3184304608141688</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1798949224122185</v>
+        <v>0.1952130840678504</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.6145140288558957</v>
+        <v>0.6367117517714004</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.2168149980654615</v>
+        <v>-0.2437985007766232</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>2.01768470890602</v>
+        <v>1.907405009785149</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>2.658064831800877</v>
+        <v>2.569314043539006</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.8910221321064336</v>
+        <v>0.8262303656523626</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.454838607170324</v>
+        <v>0.409663932009695</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.141874001745273</v>
+        <v>1.113209978950315</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1641376634535935</v>
+        <v>0.1780153068258258</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.8239500059651896</v>
+        <v>0.7671765584237433</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.387017504598417</v>
+        <v>1.394675287351465</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.2680364551044112</v>
+        <v>0.2310952153731579</v>
       </c>
     </row>
     <row r="28">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>11.84548964146584</v>
+        <v>10.93507435090304</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>37.85349466794991</v>
+        <v>37.32941646410752</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-13.34898063248456</v>
+        <v>-13.4536626543978</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>6.245224613461453</v>
+        <v>6.060245948754702</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>36.78525342745338</v>
+        <v>36.05211504762564</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-20.41192996842302</v>
+        <v>-21.17437814098477</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>10.91750466495423</v>
+        <v>11.33084306787566</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>39.54042587741421</v>
+        <v>39.95772766939768</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-15.53898702053484</v>
+        <v>-15.25894195294684</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>27.74904265367343</v>
+        <v>27.53429719410128</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>54.40723064592262</v>
+        <v>54.37701757634545</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-1.264068690939117</v>
+        <v>-2.012720070558818</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>24.02220762965072</v>
+        <v>23.02840801356659</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>53.47475696293726</v>
+        <v>53.56850225323473</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-7.263147229442644</v>
+        <v>-7.750759706550005</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>22.63244534172897</v>
+        <v>23.4637296795957</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>51.62440754762255</v>
+        <v>51.50236512514865</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-6.650336668611148</v>
+        <v>-6.394678613235522</v>
       </c>
     </row>
     <row r="31">
@@ -1625,7 +1625,7 @@
         <v>2.549285317520415</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.5932077564590101</v>
+        <v>-0.59320775645901</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.6229983227530507</v>
+        <v>0.548348971483661</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>1.942559120107886</v>
+        <v>1.880766564057439</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.731521272554551</v>
+        <v>-0.7131985567272675</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.2132654432518844</v>
+        <v>0.2313444550417548</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>1.404793805029309</v>
+        <v>1.390318723901502</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.7888894560282993</v>
+        <v>-0.7856586984490543</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4998769220316024</v>
+        <v>0.5468901321160755</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>1.860964162508219</v>
+        <v>1.908894367784986</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.7214590393602344</v>
+        <v>-0.7234779279561371</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>2.537159944907064</v>
+        <v>2.466715064344092</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>4.890952416219198</v>
+        <v>5.042172485432632</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.07642107430295628</v>
+        <v>-0.1209006965375965</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.378880417928036</v>
+        <v>1.30002314220765</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>3.302386732544843</v>
+        <v>3.270651557923562</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.426096220674919</v>
+        <v>-0.4444626404137719</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>1.463350916534538</v>
+        <v>1.525925927411496</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>3.454792657906202</v>
+        <v>3.50163909348894</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.4066137626178666</v>
+        <v>-0.4074332218025959</v>
       </c>
     </row>
     <row r="34">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-10.95762886705775</v>
+        <v>-10.80955255665124</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-8.720685321444668</v>
+        <v>-9.444635015644542</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-13.15256902012191</v>
+        <v>-13.52333702663523</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-23.5960405840752</v>
+        <v>-23.75566423966312</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-20.99986792863418</v>
+        <v>-21.01438062567593</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-22.67137861732895</v>
+        <v>-22.9148429357786</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-15.03990050264002</v>
+        <v>-15.72037386210413</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-13.18066105828032</v>
+        <v>-13.40452088802824</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-16.50767820441691</v>
+        <v>-16.27631696892382</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>2.623918192579603</v>
+        <v>3.001624856839164</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>4.769481586426395</v>
+        <v>4.331809907335922</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>-1.082376072155763</v>
+        <v>-0.6582669920273876</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>-9.847330829112105</v>
+        <v>-9.885895976179732</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>-6.23269063331731</v>
+        <v>-6.052877464787323</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>-9.46906690272777</v>
+        <v>-9.420262393717788</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>-5.574950925045994</v>
+        <v>-6.144826514907702</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>-2.786373157215359</v>
+        <v>-3.087359729415677</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>-7.540973922590008</v>
+        <v>-7.209607800633666</v>
       </c>
     </row>
     <row r="37">
@@ -1839,7 +1839,7 @@
         <v>-0.3017944662350434</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>-0.4398536584292807</v>
+        <v>-0.4398536584292805</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.4594590148771167</v>
+        <v>-0.4611871808566878</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.375138653892747</v>
+        <v>-0.3925410528338024</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.5459240959924763</v>
+        <v>-0.5495134858734699</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.6590121086473285</v>
+        <v>-0.6677097755029706</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.5794802355693675</v>
+        <v>-0.5822728167174406</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.6226274653374536</v>
+        <v>-0.6236919943666188</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.5267801727743404</v>
+        <v>-0.5279971223390709</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.4531229738966608</v>
+        <v>-0.4511142344460496</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.5650336161295506</v>
+        <v>-0.5565449165439724</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.1563022900262006</v>
+        <v>0.169695882995891</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.2790108421242525</v>
+        <v>0.2544794427931862</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>-0.05811629652283705</v>
+        <v>-0.03124876816490305</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>-0.3303821087778832</v>
+        <v>-0.3597986389636899</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>-0.2164622409199446</v>
+        <v>-0.2149449814824081</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>-0.3418094699908214</v>
+        <v>-0.332746190307405</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>-0.2319089574143143</v>
+        <v>-0.2463885404042301</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>-0.1136818988597139</v>
+        <v>-0.120641233820898</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>-0.3002507078402976</v>
+        <v>-0.299337242805504</v>
       </c>
     </row>
     <row r="40">
@@ -1930,7 +1930,7 @@
         <v>10.28990335435295</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>-8.135626275396481</v>
+        <v>-8.135626275396483</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>-10.87862048821666</v>
@@ -1948,7 +1948,7 @@
         <v>4.405268960991283</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>-14.09385682318579</v>
+        <v>-14.09385682318578</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-3.573672766402541</v>
+        <v>-3.786725441631025</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>5.370306444249381</v>
+        <v>5.412051524335109</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-12.37195388000954</v>
+        <v>-12.19857693847174</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-16.12443940583437</v>
+        <v>-15.91885387605032</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-6.925249838841049</v>
+        <v>-6.426758187751832</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-24.80500130523646</v>
+        <v>-24.43876903612827</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-8.577090547806867</v>
+        <v>-8.50684905983379</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>0.539458903244292</v>
+        <v>0.5800921759034803</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-17.37836176723155</v>
+        <v>-17.38216757776271</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>5.820209982988429</v>
+        <v>5.360018509792524</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>15.4095798352209</v>
+        <v>15.51521743334001</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-3.8044583227499</v>
+        <v>-3.516808550246438</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>-5.755681173886529</v>
+        <v>-5.53615567467267</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>3.816494227200954</v>
+        <v>4.34806877528588</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>-15.77716759908238</v>
+        <v>-15.51036479538599</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>-1.837116278617774</v>
+        <v>-1.265074441513711</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>8.133103230603931</v>
+        <v>8.035115023318111</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>-10.93804806889225</v>
+        <v>-10.79331672731149</v>
       </c>
     </row>
     <row r="43">
@@ -2035,7 +2035,7 @@
         <v>0.5086143528348056</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>-0.4021316965252312</v>
+        <v>-0.4021316965252314</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>-0.3148458328082377</v>
@@ -2053,7 +2053,7 @@
         <v>0.1600488480618101</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>-0.5120471801547809</v>
+        <v>-0.5120471801547808</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.1570255225455928</v>
+        <v>-0.1707720486844799</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.2294272260064349</v>
+        <v>0.2527118087727303</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.5518471966288085</v>
+        <v>-0.5519720935918643</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.4279199238351928</v>
+        <v>-0.4275093165215025</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.1853568479685054</v>
+        <v>-0.1743768426777493</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.6478390521884916</v>
+        <v>-0.6498034388529872</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.2920384464732488</v>
+        <v>-0.2844431869672081</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.0175986459473224</v>
+        <v>0.0199543438810624</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.5881430201973152</v>
+        <v>-0.5894075425934182</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.3249565399016787</v>
+        <v>0.297461985022226</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.8617939394710098</v>
+        <v>0.8819535241778269</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.2106312262091421</v>
+        <v>-0.2006209092570264</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>-0.1780715728448782</v>
+        <v>-0.1690627516388374</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.115529694640744</v>
+        <v>0.1379727097954092</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>-0.4918721104151885</v>
+        <v>-0.4893034703794344</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>-0.06954700301810751</v>
+        <v>-0.04962443417626011</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.3164807299055681</v>
+        <v>0.311556406510981</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>-0.4260830373513925</v>
+        <v>-0.4154319826671794</v>
       </c>
     </row>
     <row r="46">
@@ -2153,7 +2153,7 @@
         <v>7.289158678937463</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>-2.325826382917157</v>
+        <v>-2.325826382917154</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>11.5708887649201</v>
@@ -2162,7 +2162,7 @@
         <v>10.86182510118867</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>0.311815047463937</v>
+        <v>0.3118150474639342</v>
       </c>
     </row>
     <row r="47">
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>10.41772415286933</v>
+        <v>10.54296741755667</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>10.12417010890734</v>
+        <v>10.18562912478043</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-0.9167469442771639</v>
+        <v>-0.9058968052270864</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>4.273525713232438</v>
+        <v>4.099643014619635</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>2.462754270097362</v>
+        <v>2.757309171629862</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-6.75273887520193</v>
+        <v>-6.676934122410605</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>8.0607570352891</v>
+        <v>8.32164074952081</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>7.575964209554151</v>
+        <v>7.277558771668548</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-2.728555462615644</v>
+        <v>-2.311882967124403</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>18.92902220111662</v>
+        <v>19.23490929398806</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>18.88029675294067</v>
+        <v>19.40556727942437</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>7.256647745648221</v>
+        <v>7.162380759656734</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>13.54201981972547</v>
+        <v>13.71159495002165</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>12.11697302627126</v>
+        <v>11.6739231472613</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>1.574444925145869</v>
+        <v>1.704168036038929</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>14.77866501629204</v>
+        <v>14.99805031629747</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>14.05213805777707</v>
+        <v>14.13930624515406</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>3.396865876452944</v>
+        <v>3.484550117461378</v>
       </c>
     </row>
     <row r="49">
@@ -2258,7 +2258,7 @@
         <v>0.2858185532385042</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>-0.09119904794639859</v>
+        <v>-0.09119904794639848</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>0.524359598364283</v>
@@ -2267,7 +2267,7 @@
         <v>0.4922268602935365</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>0.01413056649095346</v>
+        <v>0.01413056649095333</v>
       </c>
     </row>
     <row r="50">
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0.5042938267639908</v>
+        <v>0.51321754581504</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.4846780262846397</v>
+        <v>0.5071929426944761</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.04494419371241421</v>
+        <v>-0.04403488411660605</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>0.1544790755351887</v>
+        <v>0.1466487177943469</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.08386576897708137</v>
+        <v>0.09888090884442019</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.2454317749142896</v>
+        <v>-0.2362127412442445</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.343848651391797</v>
+        <v>0.3595224375321044</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.3234161733415935</v>
+        <v>0.3121360986727131</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.1133764419961368</v>
+        <v>-0.1000184986160188</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>1.150839753165263</v>
+        <v>1.175087109267235</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>1.142144596821209</v>
+        <v>1.193572144580522</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.4412282334783704</v>
+        <v>0.448000440927183</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.5863759201762762</v>
+        <v>0.5938981970353351</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.5157256180829793</v>
+        <v>0.5169243760190406</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.06455722467492407</v>
+        <v>0.07352092880898554</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.7271500543279541</v>
+        <v>0.7413189575872126</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.6928011333754276</v>
+        <v>0.6908401883470937</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.1650340511750896</v>
+        <v>0.1718571741392409</v>
       </c>
     </row>
     <row r="52">
@@ -2358,7 +2358,7 @@
         <v>15.41851097673593</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>-3.753928367336656</v>
+        <v>-3.753928367336659</v>
       </c>
       <c r="F52" s="5" t="n">
         <v>3.788803350905062</v>
@@ -2367,7 +2367,7 @@
         <v>7.890777670217153</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>-10.95798351759882</v>
+        <v>-10.95798351759883</v>
       </c>
       <c r="I52" s="5" t="n">
         <v>8.11198161396551</v>
@@ -2387,31 +2387,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>10.46714548724683</v>
+        <v>10.24650174526569</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>13.23963521889419</v>
+        <v>13.16935614055511</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-5.704728459582966</v>
+        <v>-5.586474182786263</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>1.520736784054249</v>
+        <v>1.55640790648274</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>5.717489077076264</v>
+        <v>5.777536112162808</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>-12.87411129760924</v>
+        <v>-12.92216397284037</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>6.446396619752647</v>
+        <v>6.453828664818391</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>9.821844411434823</v>
+        <v>9.949935748296493</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>-8.69575237258268</v>
+        <v>-8.810267317465229</v>
       </c>
     </row>
     <row r="54">
@@ -2422,31 +2422,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>14.59054713034066</v>
+        <v>14.67816502171514</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>17.43022503271612</v>
+        <v>17.57994631728838</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>-2.131628641802369</v>
+        <v>-1.798366945460401</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>6.001408816739986</v>
+        <v>6.176140035117958</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>10.17048967245567</v>
+        <v>10.15253138368101</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>-8.979925980480449</v>
+        <v>-8.945600409670847</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>9.619710599776853</v>
+        <v>9.719139371648824</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>13.15214550385662</v>
+        <v>13.08736749790664</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>-5.988197068450353</v>
+        <v>-6.057699003669529</v>
       </c>
     </row>
     <row r="55">
@@ -2463,7 +2463,7 @@
         <v>0.8527828431291723</v>
       </c>
       <c r="E55" s="6" t="n">
-        <v>-0.2076261262083501</v>
+        <v>-0.2076261262083502</v>
       </c>
       <c r="F55" s="6" t="n">
         <v>0.1361738458060436</v>
@@ -2472,7 +2472,7 @@
         <v>0.2836034077876446</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>-0.393842229239535</v>
+        <v>-0.3938422292395351</v>
       </c>
       <c r="I55" s="6" t="n">
         <v>0.3524745529256893</v>
@@ -2492,31 +2492,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>0.5423609895652837</v>
+        <v>0.5340446333249418</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>0.6865921483452407</v>
+        <v>0.683957868994767</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.2958379593938599</v>
+        <v>-0.2948974477912629</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>0.05170693823999317</v>
+        <v>0.05394053208180018</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>0.1970324195957109</v>
+        <v>0.200471072118783</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>-0.4479617247536934</v>
+        <v>-0.4483224716721109</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.2746004227956654</v>
+        <v>0.2737790780931311</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>0.4095125979857981</v>
+        <v>0.415286875135339</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>-0.3663947228553095</v>
+        <v>-0.3697522544359216</v>
       </c>
     </row>
     <row r="57">
@@ -2527,31 +2527,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.8519765779694217</v>
+        <v>0.860341808284341</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>1.013666884242374</v>
+        <v>1.031053895623021</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>-0.1216868936267443</v>
+        <v>-0.1072776909556017</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.2255426294794179</v>
+        <v>0.2331859638729336</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.3868299369864585</v>
+        <v>0.3824113183149616</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>-0.3385825610886851</v>
+        <v>-0.3377120044885751</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.4340270633118906</v>
+        <v>0.4354849223411493</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>0.5918701945010846</v>
+        <v>0.5838089607928617</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>-0.2688876503944739</v>
+        <v>-0.2713533538933948</v>
       </c>
     </row>
     <row r="58">
